--- a/robot4wd_v2/calc.xlsx
+++ b/robot4wd_v2/calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\drawings\robot4wd_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5A49EE-1604-44FE-8A6A-DE6A6230D109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35333B5-B8A8-4DB7-BCBF-114546D082D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>x1</t>
   </si>
@@ -250,6 +250,33 @@
   </si>
   <si>
     <t>y10_4</t>
+  </si>
+  <si>
+    <t>koleso</t>
+  </si>
+  <si>
+    <t>x11_1</t>
+  </si>
+  <si>
+    <t>y11_1</t>
+  </si>
+  <si>
+    <t>x11_2</t>
+  </si>
+  <si>
+    <t>y11_2</t>
+  </si>
+  <si>
+    <t>x11_3</t>
+  </si>
+  <si>
+    <t>y11_3</t>
+  </si>
+  <si>
+    <t>x11_4</t>
+  </si>
+  <si>
+    <t>y11_4</t>
   </si>
 </sst>
 </file>
@@ -271,7 +298,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -352,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -364,6 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -648,7 +682,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14:T15"/>
+      <selection activeCell="T18" sqref="T18:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1116,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>12</v>
       </c>
@@ -1107,8 +1141,11 @@
         <f>F17+6</f>
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>13</v>
       </c>
@@ -1130,8 +1167,66 @@
         <f>I18</f>
         <v>266</v>
       </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="11">
+        <f>I13</f>
+        <v>278</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="11">
+        <f>N18</f>
+        <v>278</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="11">
+        <f>P18-32</f>
+        <v>246</v>
+      </c>
+      <c r="S18" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" s="11">
+        <f>R18</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="11">
+        <f>A2-32/2</f>
+        <v>324</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="11">
+        <f>N19+32</f>
+        <v>356</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>78</v>
+      </c>
+      <c r="R19" s="11">
+        <f>P19</f>
+        <v>356</v>
+      </c>
+      <c r="S19" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" s="11">
+        <f>R19-32</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1252,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>16</v>
       </c>
